--- a/reports/2025年04月/廠商月報.xlsx
+++ b/reports/2025年04月/廠商月報.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.15</v>
       </c>
       <c r="D2" t="n">
-        <v>198.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24500</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>2450</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>中油</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
